--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\kohane\dev\kosenjin-hackathon2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3ECE14-C8CB-4882-965F-2617CFCD4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5A7CD-AC89-447F-A40E-8CE0FE9EB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{A94A0B36-E1FD-D745-AEF2-EC92D35EA9DE}"/>
+    <workbookView xWindow="1668" yWindow="-13068" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A94A0B36-E1FD-D745-AEF2-EC92D35EA9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1200">
   <si>
     <t>問題文</t>
   </si>
@@ -3641,12 +3641,19 @@
     <t>サンプル</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3665,6 +3672,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3691,11 +3714,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8260,749 +8289,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E775CCA-6F8B-4F90-B46B-B513F372C963}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.61328125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1184</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>342</v>
       </c>
     </row>
